--- a/en/application_framework/application_framework/nablarch/images/images.xlsx
+++ b/en/application_framework/application_framework/nablarch/images/images.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54615574-4317-4155-AC47-462E8E74903C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,6 +71,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -91,7 +95,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="右矢印 49"/>
+        <xdr:cNvPr id="50" name="右矢印 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -122,7 +132,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -143,7 +156,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -176,24 +195,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="2000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>handler queue</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Handler queue</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -214,7 +226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="右矢印 47"/>
+        <xdr:cNvPr id="48" name="右矢印 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -245,7 +263,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -266,7 +287,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvPr id="13" name="角丸四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -298,24 +325,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="2000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Nablarch Application Framework</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -336,7 +356,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -369,20 +395,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1500" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>request</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Request</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -403,13 +424,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5362575" y="2400300"/>
-          <a:ext cx="2143125" cy="2571750"/>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="2667000"/>
+          <a:ext cx="1828800" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -435,24 +462,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1900" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1900" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>handler queue</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1900" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Handler queue</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -473,7 +493,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvPr id="11" name="右矢印 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -504,7 +530,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -525,7 +554,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -557,24 +592,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="2000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>library</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Library</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -595,7 +623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -627,14 +661,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>db access</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -655,7 +687,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -687,14 +725,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>bean util</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -715,7 +751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -747,14 +789,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>validation</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -775,7 +815,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -807,14 +853,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>messaging</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -835,7 +879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -867,14 +917,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>file access</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -895,7 +943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -927,14 +981,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>etc...</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -955,7 +1007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvPr id="26" name="角丸四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -987,20 +1045,19 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>connect</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> database</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1021,7 +1078,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvPr id="27" name="角丸四角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1053,14 +1116,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>transaction control	</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1081,7 +1142,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1113,14 +1180,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>interceptor</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1141,7 +1206,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1173,14 +1244,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>etc...</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1201,7 +1270,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="右矢印 29"/>
+        <xdr:cNvPr id="30" name="右矢印 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1232,7 +1307,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1253,7 +1331,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="右矢印 30"/>
+        <xdr:cNvPr id="31" name="右矢印 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1284,7 +1368,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1305,7 +1392,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvPr id="34" name="角丸四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1338,20 +1431,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1500" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>response</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Response</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1372,7 +1460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1404,14 +1498,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>http request</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1432,7 +1524,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvPr id="35" name="角丸四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1464,14 +1562,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>db record</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1492,7 +1588,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvPr id="36" name="角丸四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1524,14 +1626,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>file record</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1552,7 +1652,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="角丸四角形 36"/>
+        <xdr:cNvPr id="37" name="角丸四角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1584,14 +1690,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>etc...</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1612,7 +1716,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="角丸四角形 43"/>
+        <xdr:cNvPr id="44" name="角丸四角形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1644,14 +1754,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>view(jsp)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1672,7 +1780,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 44"/>
+        <xdr:cNvPr id="45" name="角丸四角形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1704,14 +1818,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>exit code</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1732,7 +1844,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="角丸四角形 46"/>
+        <xdr:cNvPr id="47" name="角丸四角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1764,14 +1882,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>etc...</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1792,7 +1908,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvPr id="32" name="角丸四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1824,14 +1946,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>request</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1852,7 +1972,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvPr id="38" name="角丸四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1884,14 +2010,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>response</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1912,7 +2036,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="右矢印 38"/>
+        <xdr:cNvPr id="39" name="右矢印 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1943,7 +2073,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1964,7 +2097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="右矢印 39"/>
+        <xdr:cNvPr id="40" name="右矢印 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1995,7 +2134,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2016,7 +2158,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvPr id="41" name="角丸四角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2043,19 +2191,17 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>handler1</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2076,7 +2222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="角丸四角形 41"/>
+        <xdr:cNvPr id="42" name="角丸四角形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2103,25 +2255,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>handler2</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2142,7 +2290,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvPr id="43" name="角丸四角形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2169,25 +2323,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>handler3</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2208,7 +2358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvPr id="46" name="角丸四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2235,25 +2391,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>handler4</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2274,7 +2426,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvPr id="49" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2307,87 +2465,25 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="2000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Application</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Framework</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nablarch Application Framework</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2408,7 +2504,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2443,342 +2545,296 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>ウェブアプリケーション</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Web application execution control platform</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743323" y="10715627"/>
+          <a:ext cx="1847851" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9558"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>実行制御基盤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3743323" y="10715627"/>
-          <a:ext cx="1847851" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9558"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Web service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>ウェブサービス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>execution control platform</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171448</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="角丸四角形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772148" y="10725152"/>
+          <a:ext cx="1847851" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9558"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>実行制御基盤</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>171448</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5772148" y="10725152"/>
-          <a:ext cx="1847851" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9558"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Batch application</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>バッチアプリケーション</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>execution control platform</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="角丸四角形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791448" y="10734677"/>
+          <a:ext cx="1847851" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9558"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>実行制御基盤</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>104777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="角丸四角形 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7791448" y="10734677"/>
-          <a:ext cx="1847851" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9558"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Messaging</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>メッセージング</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>実行制御基盤</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>execution control platform</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2800,7 +2856,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="角丸四角形 51"/>
+        <xdr:cNvPr id="52" name="角丸四角形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2834,12 +2896,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>共通アーキテクチャ</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Common architecture</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2861,7 +2923,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="角丸四角形 55"/>
+        <xdr:cNvPr id="56" name="角丸四角形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2895,17 +2963,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ライブラリ</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Library</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2927,7 +2995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="角丸四角形 57"/>
+        <xdr:cNvPr id="58" name="角丸四角形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2959,14 +3033,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>validation</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2987,7 +3059,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="角丸四角形 58"/>
+        <xdr:cNvPr id="59" name="角丸四角形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3019,14 +3097,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>data bind</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3047,7 +3123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3079,14 +3161,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>messaging</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3107,7 +3187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3139,8 +3225,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>file access</a:t>
           </a:r>
@@ -3164,7 +3251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="角丸四角形 61"/>
+        <xdr:cNvPr id="62" name="角丸四角形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3196,14 +3289,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>etc...</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3224,7 +3315,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="角丸四角形 63"/>
+        <xdr:cNvPr id="64" name="角丸四角形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3256,14 +3353,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>db access</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3273,7 +3368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3315,7 +3410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3348,9 +3443,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3383,6 +3495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3558,21 +3687,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3581,11 +3711,12 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3594,5 +3725,6 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>